--- a/Food Map.xlsx
+++ b/Food Map.xlsx
@@ -47,6 +47,15 @@
     <t>American</t>
   </si>
   <si>
+    <t>Banh_Mi_Thit</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Banh_Xeo</t>
+  </si>
+  <si>
     <t>cuisine2</t>
   </si>
   <si>
@@ -62,30 +71,117 @@
     <t>hot</t>
   </si>
   <si>
+    <t>Bento_Box</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Bimbimbap</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Buffalo_Wings</t>
+  </si>
+  <si>
+    <t>Bulgogi_Beef</t>
+  </si>
+  <si>
+    <t>Butter_Chicken</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Chicken_Biryani</t>
+  </si>
+  <si>
     <t>nonhot</t>
   </si>
   <si>
+    <t>Chicken_Caesar_Salad</t>
+  </si>
+  <si>
     <t>hasmeet</t>
   </si>
   <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Chow_Mein</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Clam_Chowder</t>
+  </si>
+  <si>
+    <t>Com_Tam</t>
+  </si>
+  <si>
+    <t>Enchiladas</t>
+  </si>
+  <si>
+    <t>South American</t>
+  </si>
+  <si>
+    <t>Fried_Rice</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Gnocchi</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Green_Papaya_Salad</t>
+  </si>
+  <si>
+    <t>Hot_Pot</t>
+  </si>
+  <si>
+    <t>Japchae</t>
+  </si>
+  <si>
+    <t>Korean_Fried_Chicken</t>
+  </si>
+  <si>
+    <t>Massaman_Curry</t>
+  </si>
+  <si>
+    <t>Moussaka</t>
+  </si>
+  <si>
+    <t>Nachos</t>
+  </si>
+  <si>
     <t>nonmeet</t>
   </si>
   <si>
     <t>foodtype1</t>
   </si>
   <si>
-    <t>Banh_Mi_Thit</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
+    <t>Omurice</t>
+  </si>
+  <si>
+    <t>Ossobuco</t>
+  </si>
+  <si>
+    <t>Pad_Thai</t>
+  </si>
+  <si>
+    <t>Paella</t>
   </si>
   <si>
     <t>foodtype2</t>
   </si>
   <si>
-    <t>Banh_Xeo</t>
-  </si>
-  <si>
     <t>foodtype3</t>
   </si>
   <si>
@@ -104,178 +200,82 @@
     <t>round1</t>
   </si>
   <si>
-    <t>Bento_Box</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Bimbimbap</t>
-  </si>
-  <si>
-    <t>Korean</t>
+    <t>Spain</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Buffalo_Wings</t>
-  </si>
-  <si>
-    <t>Bulgogi_Beef</t>
-  </si>
-  <si>
-    <t>Butter_Chicken</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Chicken_Biryani</t>
-  </si>
-  <si>
-    <t>Chicken_Caesar_Salad</t>
-  </si>
-  <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>Chow_Mein</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Clam_Chowder</t>
-  </si>
-  <si>
-    <t>Com_Tam</t>
-  </si>
-  <si>
-    <t>Enchiladas</t>
-  </si>
-  <si>
-    <t>South American</t>
-  </si>
-  <si>
-    <t>Fried_Rice</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Gnocchi</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>Green_Papaya_Salad</t>
+    <t>Peking_Duck</t>
+  </si>
+  <si>
+    <t>Pho</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Poke_Bowl</t>
+  </si>
+  <si>
+    <t>Ragu</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
   </si>
   <si>
     <t>round2</t>
   </si>
   <si>
+    <t>Rice_Paper_Rolls</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Hot_Pot</t>
-  </si>
-  <si>
-    <t>Japchae</t>
-  </si>
-  <si>
-    <t>Korean_Fried_Chicken</t>
-  </si>
-  <si>
-    <t>Massaman_Curry</t>
-  </si>
-  <si>
-    <t>Moussaka</t>
-  </si>
-  <si>
-    <t>Nachos</t>
-  </si>
-  <si>
-    <t>Omurice</t>
-  </si>
-  <si>
-    <t>Ossobuco</t>
-  </si>
-  <si>
-    <t>Pad_Thai</t>
-  </si>
-  <si>
-    <t>Paella</t>
-  </si>
-  <si>
-    <t>Spain</t>
+    <t>Risotto</t>
+  </si>
+  <si>
+    <t>Roast_Lamb</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>Samosas</t>
+  </si>
+  <si>
+    <t>Souvlaki</t>
+  </si>
+  <si>
+    <t>Spaghetti_Bolognese</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Sweet_and_Sour_Pork</t>
+  </si>
+  <si>
+    <t>Tacos</t>
+  </si>
+  <si>
+    <t>Takoyaki</t>
+  </si>
+  <si>
+    <t>Tom_Yum</t>
+  </si>
+  <si>
+    <t>Tteokbokki</t>
   </si>
   <si>
     <t>sum</t>
-  </si>
-  <si>
-    <t>Peking_Duck</t>
-  </si>
-  <si>
-    <t>Pho</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Poke_ Bowl</t>
-  </si>
-  <si>
-    <t>Ragu</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Ramen</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Rice_Paper_Rolls</t>
-  </si>
-  <si>
-    <t>Risotto</t>
-  </si>
-  <si>
-    <t>Roast_Lamb</t>
-  </si>
-  <si>
-    <t>Australian</t>
-  </si>
-  <si>
-    <t>Samosas</t>
-  </si>
-  <si>
-    <t>Souvlaki</t>
-  </si>
-  <si>
-    <t>Spaghetti_Bolognese</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Sweet_and_Sour_Pork</t>
-  </si>
-  <si>
-    <t>Tacos</t>
-  </si>
-  <si>
-    <t>Takoyaki</t>
-  </si>
-  <si>
-    <t>Tom_Yum</t>
-  </si>
-  <si>
-    <t>Tteokbokki</t>
   </si>
 </sst>
 </file>
@@ -299,6 +299,9 @@
     </font>
     <font/>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -306,9 +309,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -376,45 +376,45 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -495,10 +495,10 @@
         <v>15.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -515,10 +515,10 @@
         <v>12.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>10.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -555,10 +555,10 @@
         <v>17.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>38.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -595,10 +595,10 @@
         <v>18.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -615,10 +615,10 @@
         <v>25.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>27.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="b">
         <v>1</v>
@@ -655,10 +655,10 @@
         <v>35.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>21.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>40.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -715,10 +715,10 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>45.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
@@ -755,10 +755,10 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
@@ -775,10 +775,10 @@
         <v>34.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
@@ -795,10 +795,10 @@
         <v>4.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>24.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
@@ -835,10 +835,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>16.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>1</v>
@@ -875,10 +875,10 @@
         <v>5.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>37.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
@@ -915,10 +915,10 @@
         <v>46.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>9.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>
@@ -955,10 +955,10 @@
         <v>33.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
@@ -975,10 +975,10 @@
         <v>1.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
@@ -994,19 +994,19 @@
       <c r="A28" s="3">
         <v>43.0</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19">
+      <c r="B28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
         <v>2.0</v>
       </c>
     </row>
@@ -1015,10 +1015,10 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3" t="b">
         <v>1</v>
@@ -1035,10 +1035,10 @@
         <v>11.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3" t="b">
         <v>1</v>
@@ -1055,10 +1055,10 @@
         <v>31.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>1</v>
@@ -1075,7 +1075,7 @@
         <v>41.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>10</v>
@@ -1095,10 +1095,10 @@
         <v>29.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3" t="b">
         <v>1</v>
@@ -1115,10 +1115,10 @@
         <v>7.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3" t="b">
         <v>1</v>
@@ -1135,10 +1135,10 @@
         <v>28.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3" t="b">
         <v>1</v>
@@ -1155,10 +1155,10 @@
         <v>13.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D36" s="3" t="b">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>32.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D37" s="3" t="b">
         <v>1</v>
@@ -1195,10 +1195,10 @@
         <v>42.0</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D38" s="3" t="b">
         <v>1</v>
@@ -1215,10 +1215,10 @@
         <v>26.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="b">
         <v>1</v>
@@ -1235,10 +1235,10 @@
         <v>36.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D40" s="3" t="b">
         <v>1</v>
@@ -1255,10 +1255,10 @@
         <v>30.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D41" s="3" t="b">
         <v>1</v>
@@ -1275,10 +1275,10 @@
         <v>6.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D42" s="3" t="b">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>22.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3" t="b">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>44.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D44" s="3" t="b">
         <v>1</v>
@@ -1335,10 +1335,10 @@
         <v>8.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D45" s="3" t="b">
         <v>1</v>
@@ -1355,10 +1355,10 @@
         <v>2.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D46" s="3" t="b">
         <v>1</v>
@@ -1375,10 +1375,10 @@
         <v>20.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D47" s="3" t="b">
         <v>1</v>
@@ -1420,274 +1420,274 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11">
         <v>1.0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>-1.0</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14">
         <v>1.0</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="14">
         <v>-1.0</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="A3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11">
+      <c r="A11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14">
         <v>5.0</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="20">
         <v>8.0</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="21">
         <v>-6.0</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
